--- a/GlobalReserves/FXData/JPYUSD.xlsx
+++ b/GlobalReserves/FXData/JPYUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F776"/>
+  <dimension ref="A1:F779"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15971,6 +15971,66 @@
         <v>0</v>
       </c>
     </row>
+    <row r="777">
+      <c r="A777" s="2" t="n">
+        <v>45127</v>
+      </c>
+      <c r="B777" t="n">
+        <v>0.007161</v>
+      </c>
+      <c r="C777" t="n">
+        <v>0.007187</v>
+      </c>
+      <c r="D777" t="n">
+        <v>0.007118</v>
+      </c>
+      <c r="E777" t="n">
+        <v>0.007137</v>
+      </c>
+      <c r="F777" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="2" t="n">
+        <v>45128</v>
+      </c>
+      <c r="B778" t="n">
+        <v>0.007138</v>
+      </c>
+      <c r="C778" t="n">
+        <v>0.007154</v>
+      </c>
+      <c r="D778" t="n">
+        <v>0.007046</v>
+      </c>
+      <c r="E778" t="n">
+        <v>0.00705</v>
+      </c>
+      <c r="F778" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="B779" t="n">
+        <v>0.00705</v>
+      </c>
+      <c r="C779" t="n">
+        <v>0.0070984</v>
+      </c>
+      <c r="D779" t="n">
+        <v>0.00705</v>
+      </c>
+      <c r="E779" t="n">
+        <v>0.007092</v>
+      </c>
+      <c r="F779" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/FXData/JPYUSD.xlsx
+++ b/GlobalReserves/FXData/JPYUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F779"/>
+  <dimension ref="A1:F788"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16031,6 +16031,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="780">
+      <c r="A780" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="B780" t="n">
+        <v>0.00705</v>
+      </c>
+      <c r="C780" t="n">
+        <v>0.007102</v>
+      </c>
+      <c r="D780" t="n">
+        <v>0.00705</v>
+      </c>
+      <c r="E780" t="n">
+        <v>0.007066</v>
+      </c>
+      <c r="F780" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="2" t="n">
+        <v>45132</v>
+      </c>
+      <c r="B781" t="n">
+        <v>0.007065</v>
+      </c>
+      <c r="C781" t="n">
+        <v>0.007098</v>
+      </c>
+      <c r="D781" t="n">
+        <v>0.00706</v>
+      </c>
+      <c r="E781" t="n">
+        <v>0.007091</v>
+      </c>
+      <c r="F781" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B782" t="n">
+        <v>0.007094</v>
+      </c>
+      <c r="C782" t="n">
+        <v>0.0071445</v>
+      </c>
+      <c r="D782" t="n">
+        <v>0.0070842</v>
+      </c>
+      <c r="E782" t="n">
+        <v>0.0071284</v>
+      </c>
+      <c r="F782" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="2" t="n">
+        <v>45134</v>
+      </c>
+      <c r="B783" t="n">
+        <v>0.007131</v>
+      </c>
+      <c r="C783" t="n">
+        <v>0.0072045</v>
+      </c>
+      <c r="D783" t="n">
+        <v>0.007078</v>
+      </c>
+      <c r="E783" t="n">
+        <v>0.0071642</v>
+      </c>
+      <c r="F783" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="2" t="n">
+        <v>45135</v>
+      </c>
+      <c r="B784" t="n">
+        <v>0.007172</v>
+      </c>
+      <c r="C784" t="n">
+        <v>0.00724</v>
+      </c>
+      <c r="D784" t="n">
+        <v>0.007081</v>
+      </c>
+      <c r="E784" t="n">
+        <v>0.007081</v>
+      </c>
+      <c r="F784" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B785" t="n">
+        <v>0.007083</v>
+      </c>
+      <c r="C785" t="n">
+        <v>0.007106</v>
+      </c>
+      <c r="D785" t="n">
+        <v>0.007011</v>
+      </c>
+      <c r="E785" t="n">
+        <v>0.007027</v>
+      </c>
+      <c r="F785" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B786" t="n">
+        <v>0.007024</v>
+      </c>
+      <c r="C786" t="n">
+        <v>0.00703</v>
+      </c>
+      <c r="D786" t="n">
+        <v>0.006967</v>
+      </c>
+      <c r="E786" t="n">
+        <v>0.007001</v>
+      </c>
+      <c r="F786" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="2" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B787" t="n">
+        <v>0.006991</v>
+      </c>
+      <c r="C787" t="n">
+        <v>0.007029</v>
+      </c>
+      <c r="D787" t="n">
+        <v>0.006972</v>
+      </c>
+      <c r="E787" t="n">
+        <v>0.006976</v>
+      </c>
+      <c r="F787" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="2" t="n">
+        <v>45141</v>
+      </c>
+      <c r="B788" t="n">
+        <v>0.0069742</v>
+      </c>
+      <c r="C788" t="n">
+        <v>0.0070146</v>
+      </c>
+      <c r="D788" t="n">
+        <v>0.0069514</v>
+      </c>
+      <c r="E788" t="n">
+        <v>0.007005</v>
+      </c>
+      <c r="F788" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/FXData/JPYUSD.xlsx
+++ b/GlobalReserves/FXData/JPYUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F788"/>
+  <dimension ref="A1:F790"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16211,6 +16211,46 @@
         <v>0</v>
       </c>
     </row>
+    <row r="789">
+      <c r="A789" s="2" t="n">
+        <v>45141</v>
+      </c>
+      <c r="B789" t="n">
+        <v>0.006974</v>
+      </c>
+      <c r="C789" t="n">
+        <v>0.007037</v>
+      </c>
+      <c r="D789" t="n">
+        <v>0.006951</v>
+      </c>
+      <c r="E789" t="n">
+        <v>0.007012</v>
+      </c>
+      <c r="F789" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="2" t="n">
+        <v>45142</v>
+      </c>
+      <c r="B790" t="n">
+        <v>0.0070123</v>
+      </c>
+      <c r="C790" t="n">
+        <v>0.0070246</v>
+      </c>
+      <c r="D790" t="n">
+        <v>0.0070009</v>
+      </c>
+      <c r="E790" t="n">
+        <v>0.007016</v>
+      </c>
+      <c r="F790" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/FXData/JPYUSD.xlsx
+++ b/GlobalReserves/FXData/JPYUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F790"/>
+  <dimension ref="A1:F804"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16251,6 +16251,286 @@
         <v>0</v>
       </c>
     </row>
+    <row r="791">
+      <c r="A791" s="2" t="n">
+        <v>45142</v>
+      </c>
+      <c r="B791" t="n">
+        <v>0.007012</v>
+      </c>
+      <c r="C791" t="n">
+        <v>0.007063</v>
+      </c>
+      <c r="D791" t="n">
+        <v>0.007001</v>
+      </c>
+      <c r="E791" t="n">
+        <v>0.007053</v>
+      </c>
+      <c r="F791" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="B792" t="n">
+        <v>0.007053</v>
+      </c>
+      <c r="C792" t="n">
+        <v>0.007062</v>
+      </c>
+      <c r="D792" t="n">
+        <v>0.007014</v>
+      </c>
+      <c r="E792" t="n">
+        <v>0.007016</v>
+      </c>
+      <c r="F792" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="2" t="n">
+        <v>45146</v>
+      </c>
+      <c r="B793" t="n">
+        <v>0.007016</v>
+      </c>
+      <c r="C793" t="n">
+        <v>0.007021</v>
+      </c>
+      <c r="D793" t="n">
+        <v>0.00697</v>
+      </c>
+      <c r="E793" t="n">
+        <v>0.006971</v>
+      </c>
+      <c r="F793" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="2" t="n">
+        <v>45147</v>
+      </c>
+      <c r="B794" t="n">
+        <v>0.006974</v>
+      </c>
+      <c r="C794" t="n">
+        <v>0.006992</v>
+      </c>
+      <c r="D794" t="n">
+        <v>0.006954</v>
+      </c>
+      <c r="E794" t="n">
+        <v>0.006957</v>
+      </c>
+      <c r="F794" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="2" t="n">
+        <v>45148</v>
+      </c>
+      <c r="B795" t="n">
+        <v>0.006957</v>
+      </c>
+      <c r="C795" t="n">
+        <v>0.006974</v>
+      </c>
+      <c r="D795" t="n">
+        <v>0.006906</v>
+      </c>
+      <c r="E795" t="n">
+        <v>0.006908</v>
+      </c>
+      <c r="F795" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="2" t="n">
+        <v>45149</v>
+      </c>
+      <c r="B796" t="n">
+        <v>0.006907</v>
+      </c>
+      <c r="C796" t="n">
+        <v>0.006923</v>
+      </c>
+      <c r="D796" t="n">
+        <v>0.006895</v>
+      </c>
+      <c r="E796" t="n">
+        <v>0.006895</v>
+      </c>
+      <c r="F796" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="B797" t="n">
+        <v>0.006897</v>
+      </c>
+      <c r="C797" t="n">
+        <v>0.006908</v>
+      </c>
+      <c r="D797" t="n">
+        <v>0.006867</v>
+      </c>
+      <c r="E797" t="n">
+        <v>0.006867</v>
+      </c>
+      <c r="F797" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="2" t="n">
+        <v>45153</v>
+      </c>
+      <c r="B798" t="n">
+        <v>0.006869</v>
+      </c>
+      <c r="C798" t="n">
+        <v>0.006891</v>
+      </c>
+      <c r="D798" t="n">
+        <v>0.006856</v>
+      </c>
+      <c r="E798" t="n">
+        <v>0.006866</v>
+      </c>
+      <c r="F798" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="2" t="n">
+        <v>45154</v>
+      </c>
+      <c r="B799" t="n">
+        <v>0.006867</v>
+      </c>
+      <c r="C799" t="n">
+        <v>0.006881</v>
+      </c>
+      <c r="D799" t="n">
+        <v>0.006831</v>
+      </c>
+      <c r="E799" t="n">
+        <v>0.006832</v>
+      </c>
+      <c r="F799" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="2" t="n">
+        <v>45155</v>
+      </c>
+      <c r="B800" t="n">
+        <v>0.006833</v>
+      </c>
+      <c r="C800" t="n">
+        <v>0.006866</v>
+      </c>
+      <c r="D800" t="n">
+        <v>0.006826</v>
+      </c>
+      <c r="E800" t="n">
+        <v>0.006853</v>
+      </c>
+      <c r="F800" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="2" t="n">
+        <v>45156</v>
+      </c>
+      <c r="B801" t="n">
+        <v>0.006856</v>
+      </c>
+      <c r="C801" t="n">
+        <v>0.006898</v>
+      </c>
+      <c r="D801" t="n">
+        <v>0.006856</v>
+      </c>
+      <c r="E801" t="n">
+        <v>0.006874</v>
+      </c>
+      <c r="F801" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="2" t="n">
+        <v>45159</v>
+      </c>
+      <c r="B802" t="n">
+        <v>0.006874</v>
+      </c>
+      <c r="C802" t="n">
+        <v>0.0068884</v>
+      </c>
+      <c r="D802" t="n">
+        <v>0.006832</v>
+      </c>
+      <c r="E802" t="n">
+        <v>0.006837</v>
+      </c>
+      <c r="F802" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="2" t="n">
+        <v>45160</v>
+      </c>
+      <c r="B803" t="n">
+        <v>0.006837</v>
+      </c>
+      <c r="C803" t="n">
+        <v>0.006872</v>
+      </c>
+      <c r="D803" t="n">
+        <v>0.006832</v>
+      </c>
+      <c r="E803" t="n">
+        <v>0.006851</v>
+      </c>
+      <c r="F803" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="2" t="n">
+        <v>45161</v>
+      </c>
+      <c r="B804" t="n">
+        <v>0.0068515</v>
+      </c>
+      <c r="C804" t="n">
+        <v>0.0068682</v>
+      </c>
+      <c r="D804" t="n">
+        <v>0.0068515</v>
+      </c>
+      <c r="E804" t="n">
+        <v>0.006861</v>
+      </c>
+      <c r="F804" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/FXData/JPYUSD.xlsx
+++ b/GlobalReserves/FXData/JPYUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F804"/>
+  <dimension ref="A1:F812"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16531,6 +16531,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="805">
+      <c r="A805" s="2" t="n">
+        <v>45161</v>
+      </c>
+      <c r="B805" t="n">
+        <v>0.006852</v>
+      </c>
+      <c r="C805" t="n">
+        <v>0.006917</v>
+      </c>
+      <c r="D805" t="n">
+        <v>0.006852</v>
+      </c>
+      <c r="E805" t="n">
+        <v>0.006902</v>
+      </c>
+      <c r="F805" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="2" t="n">
+        <v>45162</v>
+      </c>
+      <c r="B806" t="n">
+        <v>0.006903</v>
+      </c>
+      <c r="C806" t="n">
+        <v>0.006914</v>
+      </c>
+      <c r="D806" t="n">
+        <v>0.006853</v>
+      </c>
+      <c r="E806" t="n">
+        <v>0.006853</v>
+      </c>
+      <c r="F806" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="2" t="n">
+        <v>45163</v>
+      </c>
+      <c r="B807" t="n">
+        <v>0.006855</v>
+      </c>
+      <c r="C807" t="n">
+        <v>0.006859</v>
+      </c>
+      <c r="D807" t="n">
+        <v>0.006822</v>
+      </c>
+      <c r="E807" t="n">
+        <v>0.006826</v>
+      </c>
+      <c r="F807" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="2" t="n">
+        <v>45166</v>
+      </c>
+      <c r="B808" t="n">
+        <v>0.006826</v>
+      </c>
+      <c r="C808" t="n">
+        <v>0.006836</v>
+      </c>
+      <c r="D808" t="n">
+        <v>0.006817</v>
+      </c>
+      <c r="E808" t="n">
+        <v>0.006822</v>
+      </c>
+      <c r="F808" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="2" t="n">
+        <v>45167</v>
+      </c>
+      <c r="B809" t="n">
+        <v>0.006821</v>
+      </c>
+      <c r="C809" t="n">
+        <v>0.006864</v>
+      </c>
+      <c r="D809" t="n">
+        <v>0.006787</v>
+      </c>
+      <c r="E809" t="n">
+        <v>0.006849</v>
+      </c>
+      <c r="F809" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="2" t="n">
+        <v>45168</v>
+      </c>
+      <c r="B810" t="n">
+        <v>0.00685</v>
+      </c>
+      <c r="C810" t="n">
+        <v>0.006869</v>
+      </c>
+      <c r="D810" t="n">
+        <v>0.006825</v>
+      </c>
+      <c r="E810" t="n">
+        <v>0.006837</v>
+      </c>
+      <c r="F810" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B811" t="n">
+        <v>0.00684</v>
+      </c>
+      <c r="C811" t="n">
+        <v>0.006879</v>
+      </c>
+      <c r="D811" t="n">
+        <v>0.00684</v>
+      </c>
+      <c r="E811" t="n">
+        <v>0.006868</v>
+      </c>
+      <c r="F811" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B812" t="n">
+        <v>0.00687</v>
+      </c>
+      <c r="C812" t="n">
+        <v>0.006921</v>
+      </c>
+      <c r="D812" t="n">
+        <v>0.006836</v>
+      </c>
+      <c r="E812" t="n">
+        <v>0.006836</v>
+      </c>
+      <c r="F812" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/FXData/JPYUSD.xlsx
+++ b/GlobalReserves/FXData/JPYUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F812"/>
+  <dimension ref="A1:F850"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16691,6 +16691,766 @@
         <v>0</v>
       </c>
     </row>
+    <row r="813">
+      <c r="A813" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B813" t="n">
+        <v>0.00687</v>
+      </c>
+      <c r="C813" t="n">
+        <v>0.006921</v>
+      </c>
+      <c r="D813" t="n">
+        <v>0.006836</v>
+      </c>
+      <c r="E813" t="n">
+        <v>0.006836</v>
+      </c>
+      <c r="F813" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="B814" t="n">
+        <v>0.006836</v>
+      </c>
+      <c r="C814" t="n">
+        <v>0.006847</v>
+      </c>
+      <c r="D814" t="n">
+        <v>0.006825</v>
+      </c>
+      <c r="E814" t="n">
+        <v>0.006825</v>
+      </c>
+      <c r="F814" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="2" t="n">
+        <v>45174</v>
+      </c>
+      <c r="B815" t="n">
+        <v>0.006826</v>
+      </c>
+      <c r="C815" t="n">
+        <v>0.006826</v>
+      </c>
+      <c r="D815" t="n">
+        <v>0.006767</v>
+      </c>
+      <c r="E815" t="n">
+        <v>0.006769</v>
+      </c>
+      <c r="F815" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="2" t="n">
+        <v>45175</v>
+      </c>
+      <c r="B816" t="n">
+        <v>0.006769</v>
+      </c>
+      <c r="C816" t="n">
+        <v>0.006801</v>
+      </c>
+      <c r="D816" t="n">
+        <v>0.006767</v>
+      </c>
+      <c r="E816" t="n">
+        <v>0.006771</v>
+      </c>
+      <c r="F816" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="B817" t="n">
+        <v>0.006772</v>
+      </c>
+      <c r="C817" t="n">
+        <v>0.0068</v>
+      </c>
+      <c r="D817" t="n">
+        <v>0.006764</v>
+      </c>
+      <c r="E817" t="n">
+        <v>0.006786</v>
+      </c>
+      <c r="F817" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="2" t="n">
+        <v>45177</v>
+      </c>
+      <c r="B818" t="n">
+        <v>0.006787</v>
+      </c>
+      <c r="C818" t="n">
+        <v>0.006818</v>
+      </c>
+      <c r="D818" t="n">
+        <v>0.006764</v>
+      </c>
+      <c r="E818" t="n">
+        <v>0.006764</v>
+      </c>
+      <c r="F818" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="B819" t="n">
+        <v>0.006764</v>
+      </c>
+      <c r="C819" t="n">
+        <v>0.006852</v>
+      </c>
+      <c r="D819" t="n">
+        <v>0.006764</v>
+      </c>
+      <c r="E819" t="n">
+        <v>0.00682</v>
+      </c>
+      <c r="F819" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="2" t="n">
+        <v>45181</v>
+      </c>
+      <c r="B820" t="n">
+        <v>0.006821</v>
+      </c>
+      <c r="C820" t="n">
+        <v>0.006826</v>
+      </c>
+      <c r="D820" t="n">
+        <v>0.006793</v>
+      </c>
+      <c r="E820" t="n">
+        <v>0.006796</v>
+      </c>
+      <c r="F820" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="B821" t="n">
+        <v>0.006795</v>
+      </c>
+      <c r="C821" t="n">
+        <v>0.006801</v>
+      </c>
+      <c r="D821" t="n">
+        <v>0.006774</v>
+      </c>
+      <c r="E821" t="n">
+        <v>0.006783</v>
+      </c>
+      <c r="F821" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B822" t="n">
+        <v>0.006783</v>
+      </c>
+      <c r="C822" t="n">
+        <v>0.006801</v>
+      </c>
+      <c r="D822" t="n">
+        <v>0.006778</v>
+      </c>
+      <c r="E822" t="n">
+        <v>0.006779</v>
+      </c>
+      <c r="F822" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="B823" t="n">
+        <v>0.00678</v>
+      </c>
+      <c r="C823" t="n">
+        <v>0.006786</v>
+      </c>
+      <c r="D823" t="n">
+        <v>0.00676</v>
+      </c>
+      <c r="E823" t="n">
+        <v>0.006761</v>
+      </c>
+      <c r="F823" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="B824" t="n">
+        <v>0.006761</v>
+      </c>
+      <c r="C824" t="n">
+        <v>0.006778</v>
+      </c>
+      <c r="D824" t="n">
+        <v>0.006761</v>
+      </c>
+      <c r="E824" t="n">
+        <v>0.006773</v>
+      </c>
+      <c r="F824" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="2" t="n">
+        <v>45188</v>
+      </c>
+      <c r="B825" t="n">
+        <v>0.006774</v>
+      </c>
+      <c r="C825" t="n">
+        <v>0.006778</v>
+      </c>
+      <c r="D825" t="n">
+        <v>0.006762</v>
+      </c>
+      <c r="E825" t="n">
+        <v>0.006764</v>
+      </c>
+      <c r="F825" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B826" t="n">
+        <v>0.006763</v>
+      </c>
+      <c r="C826" t="n">
+        <v>0.00678</v>
+      </c>
+      <c r="D826" t="n">
+        <v>0.006741</v>
+      </c>
+      <c r="E826" t="n">
+        <v>0.006745</v>
+      </c>
+      <c r="F826" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="B827" t="n">
+        <v>0.006744</v>
+      </c>
+      <c r="C827" t="n">
+        <v>0.006787</v>
+      </c>
+      <c r="D827" t="n">
+        <v>0.006737</v>
+      </c>
+      <c r="E827" t="n">
+        <v>0.006774</v>
+      </c>
+      <c r="F827" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="B828" t="n">
+        <v>0.006774</v>
+      </c>
+      <c r="C828" t="n">
+        <v>0.006777</v>
+      </c>
+      <c r="D828" t="n">
+        <v>0.006737</v>
+      </c>
+      <c r="E828" t="n">
+        <v>0.006737</v>
+      </c>
+      <c r="F828" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="B829" t="n">
+        <v>0.006737</v>
+      </c>
+      <c r="C829" t="n">
+        <v>0.006743</v>
+      </c>
+      <c r="D829" t="n">
+        <v>0.006714</v>
+      </c>
+      <c r="E829" t="n">
+        <v>0.006716</v>
+      </c>
+      <c r="F829" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="2" t="n">
+        <v>45195</v>
+      </c>
+      <c r="B830" t="n">
+        <v>0.006716</v>
+      </c>
+      <c r="C830" t="n">
+        <v>0.006723</v>
+      </c>
+      <c r="D830" t="n">
+        <v>0.006704</v>
+      </c>
+      <c r="E830" t="n">
+        <v>0.006708</v>
+      </c>
+      <c r="F830" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="2" t="n">
+        <v>45196</v>
+      </c>
+      <c r="B831" t="n">
+        <v>0.006709</v>
+      </c>
+      <c r="C831" t="n">
+        <v>0.006716</v>
+      </c>
+      <c r="D831" t="n">
+        <v>0.00668</v>
+      </c>
+      <c r="E831" t="n">
+        <v>0.006686</v>
+      </c>
+      <c r="F831" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="B832" t="n">
+        <v>0.006687</v>
+      </c>
+      <c r="C832" t="n">
+        <v>0.006703</v>
+      </c>
+      <c r="D832" t="n">
+        <v>0.006687</v>
+      </c>
+      <c r="E832" t="n">
+        <v>0.006696</v>
+      </c>
+      <c r="F832" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B833" t="n">
+        <v>0.006696</v>
+      </c>
+      <c r="C833" t="n">
+        <v>0.006732</v>
+      </c>
+      <c r="D833" t="n">
+        <v>0.00669</v>
+      </c>
+      <c r="E833" t="n">
+        <v>0.006692</v>
+      </c>
+      <c r="F833" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="B834" t="n">
+        <v>0.006692</v>
+      </c>
+      <c r="C834" t="n">
+        <v>0.006694</v>
+      </c>
+      <c r="D834" t="n">
+        <v>0.006667</v>
+      </c>
+      <c r="E834" t="n">
+        <v>0.006672</v>
+      </c>
+      <c r="F834" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="B835" t="n">
+        <v>0.006672</v>
+      </c>
+      <c r="C835" t="n">
+        <v>0.006757</v>
+      </c>
+      <c r="D835" t="n">
+        <v>0.006661</v>
+      </c>
+      <c r="E835" t="n">
+        <v>0.006707</v>
+      </c>
+      <c r="F835" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="B836" t="n">
+        <v>0.006704</v>
+      </c>
+      <c r="C836" t="n">
+        <v>0.006722</v>
+      </c>
+      <c r="D836" t="n">
+        <v>0.006698</v>
+      </c>
+      <c r="E836" t="n">
+        <v>0.006708</v>
+      </c>
+      <c r="F836" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B837" t="n">
+        <v>0.006708</v>
+      </c>
+      <c r="C837" t="n">
+        <v>0.006742</v>
+      </c>
+      <c r="D837" t="n">
+        <v>0.006708</v>
+      </c>
+      <c r="E837" t="n">
+        <v>0.006732</v>
+      </c>
+      <c r="F837" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="2" t="n">
+        <v>45205</v>
+      </c>
+      <c r="B838" t="n">
+        <v>0.006733</v>
+      </c>
+      <c r="C838" t="n">
+        <v>0.006739</v>
+      </c>
+      <c r="D838" t="n">
+        <v>0.00669</v>
+      </c>
+      <c r="E838" t="n">
+        <v>0.006697</v>
+      </c>
+      <c r="F838" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="B839" t="n">
+        <v>0.006697</v>
+      </c>
+      <c r="C839" t="n">
+        <v>0.006736</v>
+      </c>
+      <c r="D839" t="n">
+        <v>0.006679</v>
+      </c>
+      <c r="E839" t="n">
+        <v>0.006731</v>
+      </c>
+      <c r="F839" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="2" t="n">
+        <v>45209</v>
+      </c>
+      <c r="B840" t="n">
+        <v>0.006731</v>
+      </c>
+      <c r="C840" t="n">
+        <v>0.006748</v>
+      </c>
+      <c r="D840" t="n">
+        <v>0.006708</v>
+      </c>
+      <c r="E840" t="n">
+        <v>0.006722</v>
+      </c>
+      <c r="F840" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="2" t="n">
+        <v>45210</v>
+      </c>
+      <c r="B841" t="n">
+        <v>0.006723</v>
+      </c>
+      <c r="C841" t="n">
+        <v>0.006736</v>
+      </c>
+      <c r="D841" t="n">
+        <v>0.006698</v>
+      </c>
+      <c r="E841" t="n">
+        <v>0.006705</v>
+      </c>
+      <c r="F841" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B842" t="n">
+        <v>0.006705</v>
+      </c>
+      <c r="C842" t="n">
+        <v>0.006713</v>
+      </c>
+      <c r="D842" t="n">
+        <v>0.006674</v>
+      </c>
+      <c r="E842" t="n">
+        <v>0.006674</v>
+      </c>
+      <c r="F842" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="2" t="n">
+        <v>45212</v>
+      </c>
+      <c r="B843" t="n">
+        <v>0.006675</v>
+      </c>
+      <c r="C843" t="n">
+        <v>0.00669</v>
+      </c>
+      <c r="D843" t="n">
+        <v>0.006675</v>
+      </c>
+      <c r="E843" t="n">
+        <v>0.006683</v>
+      </c>
+      <c r="F843" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="B844" t="n">
+        <v>0.006683</v>
+      </c>
+      <c r="C844" t="n">
+        <v>0.006695</v>
+      </c>
+      <c r="D844" t="n">
+        <v>0.006678</v>
+      </c>
+      <c r="E844" t="n">
+        <v>0.006686</v>
+      </c>
+      <c r="F844" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="B845" t="n">
+        <v>0.006686</v>
+      </c>
+      <c r="C845" t="n">
+        <v>0.006695</v>
+      </c>
+      <c r="D845" t="n">
+        <v>0.006674</v>
+      </c>
+      <c r="E845" t="n">
+        <v>0.006674</v>
+      </c>
+      <c r="F845" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="B846" t="n">
+        <v>0.006674</v>
+      </c>
+      <c r="C846" t="n">
+        <v>0.006686</v>
+      </c>
+      <c r="D846" t="n">
+        <v>0.006669</v>
+      </c>
+      <c r="E846" t="n">
+        <v>0.006673</v>
+      </c>
+      <c r="F846" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B847" t="n">
+        <v>0.006673</v>
+      </c>
+      <c r="C847" t="n">
+        <v>0.00668</v>
+      </c>
+      <c r="D847" t="n">
+        <v>0.00667</v>
+      </c>
+      <c r="E847" t="n">
+        <v>0.006675</v>
+      </c>
+      <c r="F847" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="2" t="n">
+        <v>45219</v>
+      </c>
+      <c r="B848" t="n">
+        <v>0.006673</v>
+      </c>
+      <c r="C848" t="n">
+        <v>0.006676</v>
+      </c>
+      <c r="D848" t="n">
+        <v>0.006668</v>
+      </c>
+      <c r="E848" t="n">
+        <v>0.006671</v>
+      </c>
+      <c r="F848" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="B849" t="n">
+        <v>0.006671</v>
+      </c>
+      <c r="C849" t="n">
+        <v>0.006686</v>
+      </c>
+      <c r="D849" t="n">
+        <v>0.006666</v>
+      </c>
+      <c r="E849" t="n">
+        <v>0.006677</v>
+      </c>
+      <c r="F849" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="2" t="n">
+        <v>45223</v>
+      </c>
+      <c r="B850" t="n">
+        <v>0.0066776</v>
+      </c>
+      <c r="C850" t="n">
+        <v>0.006688</v>
+      </c>
+      <c r="D850" t="n">
+        <v>0.0066769</v>
+      </c>
+      <c r="E850" t="n">
+        <v>0.006686</v>
+      </c>
+      <c r="F850" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/FXData/JPYUSD.xlsx
+++ b/GlobalReserves/FXData/JPYUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F850"/>
+  <dimension ref="A1:F855"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17451,6 +17451,106 @@
         <v>0</v>
       </c>
     </row>
+    <row r="851">
+      <c r="A851" s="2" t="n">
+        <v>45223</v>
+      </c>
+      <c r="B851" t="n">
+        <v>0.006678</v>
+      </c>
+      <c r="C851" t="n">
+        <v>0.006695</v>
+      </c>
+      <c r="D851" t="n">
+        <v>0.006668</v>
+      </c>
+      <c r="E851" t="n">
+        <v>0.00667</v>
+      </c>
+      <c r="F851" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="2" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B852" t="n">
+        <v>0.00667</v>
+      </c>
+      <c r="C852" t="n">
+        <v>0.006675</v>
+      </c>
+      <c r="D852" t="n">
+        <v>0.006654</v>
+      </c>
+      <c r="E852" t="n">
+        <v>0.006657</v>
+      </c>
+      <c r="F852" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="B853" t="n">
+        <v>0.006658</v>
+      </c>
+      <c r="C853" t="n">
+        <v>0.006664</v>
+      </c>
+      <c r="D853" t="n">
+        <v>0.006633</v>
+      </c>
+      <c r="E853" t="n">
+        <v>0.006648</v>
+      </c>
+      <c r="F853" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="2" t="n">
+        <v>45226</v>
+      </c>
+      <c r="B854" t="n">
+        <v>0.006648</v>
+      </c>
+      <c r="C854" t="n">
+        <v>0.00669</v>
+      </c>
+      <c r="D854" t="n">
+        <v>0.006648</v>
+      </c>
+      <c r="E854" t="n">
+        <v>0.006679</v>
+      </c>
+      <c r="F854" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B855" t="n">
+        <v>0.006679</v>
+      </c>
+      <c r="C855" t="n">
+        <v>0.006688</v>
+      </c>
+      <c r="D855" t="n">
+        <v>0.0066759</v>
+      </c>
+      <c r="E855" t="n">
+        <v>0.0066822</v>
+      </c>
+      <c r="F855" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/FXData/JPYUSD.xlsx
+++ b/GlobalReserves/FXData/JPYUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F855"/>
+  <dimension ref="A1:F866"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17551,6 +17551,226 @@
         <v>0</v>
       </c>
     </row>
+    <row r="856">
+      <c r="A856" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B856" t="n">
+        <v>0.006679</v>
+      </c>
+      <c r="C856" t="n">
+        <v>0.006719</v>
+      </c>
+      <c r="D856" t="n">
+        <v>0.006674</v>
+      </c>
+      <c r="E856" t="n">
+        <v>0.006706</v>
+      </c>
+      <c r="F856" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B857" t="n">
+        <v>0.006705</v>
+      </c>
+      <c r="C857" t="n">
+        <v>0.006708</v>
+      </c>
+      <c r="D857" t="n">
+        <v>0.00659</v>
+      </c>
+      <c r="E857" t="n">
+        <v>0.00659</v>
+      </c>
+      <c r="F857" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B858" t="n">
+        <v>0.006591</v>
+      </c>
+      <c r="C858" t="n">
+        <v>0.006636</v>
+      </c>
+      <c r="D858" t="n">
+        <v>0.006591</v>
+      </c>
+      <c r="E858" t="n">
+        <v>0.006623</v>
+      </c>
+      <c r="F858" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="B859" t="n">
+        <v>0.006623</v>
+      </c>
+      <c r="C859" t="n">
+        <v>0.006673</v>
+      </c>
+      <c r="D859" t="n">
+        <v>0.006623</v>
+      </c>
+      <c r="E859" t="n">
+        <v>0.006644</v>
+      </c>
+      <c r="F859" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="B860" t="n">
+        <v>0.006644</v>
+      </c>
+      <c r="C860" t="n">
+        <v>0.0067</v>
+      </c>
+      <c r="D860" t="n">
+        <v>0.006644</v>
+      </c>
+      <c r="E860" t="n">
+        <v>0.006692</v>
+      </c>
+      <c r="F860" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="B861" t="n">
+        <v>0.006692</v>
+      </c>
+      <c r="C861" t="n">
+        <v>0.006699</v>
+      </c>
+      <c r="D861" t="n">
+        <v>0.006661</v>
+      </c>
+      <c r="E861" t="n">
+        <v>0.006661</v>
+      </c>
+      <c r="F861" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="2" t="n">
+        <v>45237</v>
+      </c>
+      <c r="B862" t="n">
+        <v>0.006661</v>
+      </c>
+      <c r="C862" t="n">
+        <v>0.006669</v>
+      </c>
+      <c r="D862" t="n">
+        <v>0.006637</v>
+      </c>
+      <c r="E862" t="n">
+        <v>0.006648</v>
+      </c>
+      <c r="F862" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="B863" t="n">
+        <v>0.006648</v>
+      </c>
+      <c r="C863" t="n">
+        <v>0.006651</v>
+      </c>
+      <c r="D863" t="n">
+        <v>0.006621</v>
+      </c>
+      <c r="E863" t="n">
+        <v>0.006622</v>
+      </c>
+      <c r="F863" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="B864" t="n">
+        <v>0.00662</v>
+      </c>
+      <c r="C864" t="n">
+        <v>0.006632</v>
+      </c>
+      <c r="D864" t="n">
+        <v>0.006606</v>
+      </c>
+      <c r="E864" t="n">
+        <v>0.006607</v>
+      </c>
+      <c r="F864" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B865" t="n">
+        <v>0.006607</v>
+      </c>
+      <c r="C865" t="n">
+        <v>0.006612</v>
+      </c>
+      <c r="D865" t="n">
+        <v>0.006596</v>
+      </c>
+      <c r="E865" t="n">
+        <v>0.006596</v>
+      </c>
+      <c r="F865" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="B866" t="n">
+        <v>0.006597</v>
+      </c>
+      <c r="C866" t="n">
+        <v>0.006604</v>
+      </c>
+      <c r="D866" t="n">
+        <v>0.006591</v>
+      </c>
+      <c r="E866" t="n">
+        <v>0.006591</v>
+      </c>
+      <c r="F866" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/FXData/JPYUSD.xlsx
+++ b/GlobalReserves/FXData/JPYUSD.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F876"/>
+  <dimension ref="A1:F881"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17921,6 +17921,106 @@
         <v>0</v>
       </c>
     </row>
+    <row r="877" spans="1:6">
+      <c r="A877" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B877">
+        <v>0.006689</v>
+      </c>
+      <c r="C877">
+        <v>0.006702</v>
+      </c>
+      <c r="D877">
+        <v>0.006681</v>
+      </c>
+      <c r="E877">
+        <v>0.00669</v>
+      </c>
+      <c r="F877">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878" spans="1:6">
+      <c r="A878" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B878">
+        <v>0.006692</v>
+      </c>
+      <c r="C878">
+        <v>0.006731</v>
+      </c>
+      <c r="D878">
+        <v>0.006682</v>
+      </c>
+      <c r="E878">
+        <v>0.006723</v>
+      </c>
+      <c r="F878">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879" spans="1:6">
+      <c r="A879" s="2">
+        <v>45258</v>
+      </c>
+      <c r="B879">
+        <v>0.006722</v>
+      </c>
+      <c r="C879">
+        <v>0.006787</v>
+      </c>
+      <c r="D879">
+        <v>0.00672</v>
+      </c>
+      <c r="E879">
+        <v>0.006779</v>
+      </c>
+      <c r="F879">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="880" spans="1:6">
+      <c r="A880" s="2">
+        <v>45259</v>
+      </c>
+      <c r="B880">
+        <v>0.006777</v>
+      </c>
+      <c r="C880">
+        <v>0.006817</v>
+      </c>
+      <c r="D880">
+        <v>0.006763</v>
+      </c>
+      <c r="E880">
+        <v>0.006789</v>
+      </c>
+      <c r="F880">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881" spans="1:6">
+      <c r="A881" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B881">
+        <v>0.00679</v>
+      </c>
+      <c r="C881">
+        <v>0.0068089</v>
+      </c>
+      <c r="D881">
+        <v>0.00679</v>
+      </c>
+      <c r="E881">
+        <v>0.006806</v>
+      </c>
+      <c r="F881">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GlobalReserves/FXData/JPYUSD.xlsx
+++ b/GlobalReserves/FXData/JPYUSD.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F881"/>
+  <dimension ref="A1:F891"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18021,6 +18021,206 @@
         <v>0</v>
       </c>
     </row>
+    <row r="882" spans="1:6">
+      <c r="A882" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B882">
+        <v>0.00679</v>
+      </c>
+      <c r="C882">
+        <v>0.006809</v>
+      </c>
+      <c r="D882">
+        <v>0.006736</v>
+      </c>
+      <c r="E882">
+        <v>0.006745</v>
+      </c>
+      <c r="F882">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6">
+      <c r="A883" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B883">
+        <v>0.006746</v>
+      </c>
+      <c r="C883">
+        <v>0.006817</v>
+      </c>
+      <c r="D883">
+        <v>0.006743</v>
+      </c>
+      <c r="E883">
+        <v>0.006809</v>
+      </c>
+      <c r="F883">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884" spans="1:6">
+      <c r="A884" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B884">
+        <v>0.006746</v>
+      </c>
+      <c r="C884">
+        <v>0.006817</v>
+      </c>
+      <c r="D884">
+        <v>0.006743</v>
+      </c>
+      <c r="E884">
+        <v>0.006809</v>
+      </c>
+      <c r="F884">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885" spans="1:6">
+      <c r="A885" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B885">
+        <v>0.006746</v>
+      </c>
+      <c r="C885">
+        <v>0.006817</v>
+      </c>
+      <c r="D885">
+        <v>0.006743</v>
+      </c>
+      <c r="E885">
+        <v>0.006809</v>
+      </c>
+      <c r="F885">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="886" spans="1:6">
+      <c r="A886" s="2">
+        <v>45264</v>
+      </c>
+      <c r="B886">
+        <v>0.00681</v>
+      </c>
+      <c r="C886">
+        <v>0.006838</v>
+      </c>
+      <c r="D886">
+        <v>0.006783</v>
+      </c>
+      <c r="E886">
+        <v>0.006791</v>
+      </c>
+      <c r="F886">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887" spans="1:6">
+      <c r="A887" s="2">
+        <v>45265</v>
+      </c>
+      <c r="B887">
+        <v>0.006792</v>
+      </c>
+      <c r="C887">
+        <v>0.006821</v>
+      </c>
+      <c r="D887">
+        <v>0.006785</v>
+      </c>
+      <c r="E887">
+        <v>0.006794</v>
+      </c>
+      <c r="F887">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6">
+      <c r="A888" s="2">
+        <v>45266</v>
+      </c>
+      <c r="B888">
+        <v>0.006794</v>
+      </c>
+      <c r="C888">
+        <v>0.0067979</v>
+      </c>
+      <c r="D888">
+        <v>0.0067856</v>
+      </c>
+      <c r="E888">
+        <v>0.006794</v>
+      </c>
+      <c r="F888">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889" spans="1:6">
+      <c r="A889" s="2">
+        <v>45266</v>
+      </c>
+      <c r="B889">
+        <v>0.006794</v>
+      </c>
+      <c r="C889">
+        <v>0.006806</v>
+      </c>
+      <c r="D889">
+        <v>0.006781</v>
+      </c>
+      <c r="E889">
+        <v>0.006786</v>
+      </c>
+      <c r="F889">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890" spans="1:6">
+      <c r="A890" s="2">
+        <v>45267</v>
+      </c>
+      <c r="B890">
+        <v>0.00679</v>
+      </c>
+      <c r="C890">
+        <v>0.007049</v>
+      </c>
+      <c r="D890">
+        <v>0.006786</v>
+      </c>
+      <c r="E890">
+        <v>0.006934</v>
+      </c>
+      <c r="F890">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="891" spans="1:6">
+      <c r="A891" s="2">
+        <v>45268</v>
+      </c>
+      <c r="B891">
+        <v>0.006933</v>
+      </c>
+      <c r="C891">
+        <v>0.0070154</v>
+      </c>
+      <c r="D891">
+        <v>0.0069301</v>
+      </c>
+      <c r="E891">
+        <v>0.006937</v>
+      </c>
+      <c r="F891">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GlobalReserves/FXData/JPYUSD.xlsx
+++ b/GlobalReserves/FXData/JPYUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1502"/>
+  <dimension ref="A1:F1514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30491,6 +30491,246 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1503">
+      <c r="A1503" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B1503" t="n">
+        <v>0.006976</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>0.006999</v>
+      </c>
+      <c r="D1503" t="n">
+        <v>0.006905</v>
+      </c>
+      <c r="E1503" t="n">
+        <v>0.006912</v>
+      </c>
+      <c r="F1503" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>0.006911</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>0.006951</v>
+      </c>
+      <c r="D1504" t="n">
+        <v>0.006852</v>
+      </c>
+      <c r="E1504" t="n">
+        <v>0.006913</v>
+      </c>
+      <c r="F1504" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>0.006912</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>0.00696</v>
+      </c>
+      <c r="D1505" t="n">
+        <v>0.006902</v>
+      </c>
+      <c r="E1505" t="n">
+        <v>0.006932</v>
+      </c>
+      <c r="F1505" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>0.006933</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>0.006971</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>0.006915</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>0.00692</v>
+      </c>
+      <c r="F1506" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>0.006921</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>0.006928</v>
+      </c>
+      <c r="D1507" t="n">
+        <v>0.006859</v>
+      </c>
+      <c r="E1507" t="n">
+        <v>0.006859</v>
+      </c>
+      <c r="F1507" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>0.006857</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>0.006883</v>
+      </c>
+      <c r="D1508" t="n">
+        <v>0.006832</v>
+      </c>
+      <c r="E1508" t="n">
+        <v>0.006881</v>
+      </c>
+      <c r="F1508" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>0.006879</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>0.006926</v>
+      </c>
+      <c r="D1509" t="n">
+        <v>0.006871</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>0.0069</v>
+      </c>
+      <c r="F1509" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>0.006899</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>0.0069</v>
+      </c>
+      <c r="D1510" t="n">
+        <v>0.006853</v>
+      </c>
+      <c r="E1510" t="n">
+        <v>0.006859</v>
+      </c>
+      <c r="F1510" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="B1511" t="n">
+        <v>0.006861</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>0.006867</v>
+      </c>
+      <c r="D1511" t="n">
+        <v>0.006789</v>
+      </c>
+      <c r="E1511" t="n">
+        <v>0.006792</v>
+      </c>
+      <c r="F1511" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" s="2" t="n">
+        <v>45308</v>
+      </c>
+      <c r="B1512" t="n">
+        <v>0.006793</v>
+      </c>
+      <c r="C1512" t="n">
+        <v>0.006797</v>
+      </c>
+      <c r="D1512" t="n">
+        <v>0.006734</v>
+      </c>
+      <c r="E1512" t="n">
+        <v>0.006747</v>
+      </c>
+      <c r="F1512" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="B1513" t="n">
+        <v>0.00675</v>
+      </c>
+      <c r="C1513" t="n">
+        <v>0.006772</v>
+      </c>
+      <c r="D1513" t="n">
+        <v>0.006744</v>
+      </c>
+      <c r="E1513" t="n">
+        <v>0.006748</v>
+      </c>
+      <c r="F1513" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="B1514" t="n">
+        <v>0.006749</v>
+      </c>
+      <c r="C1514" t="n">
+        <v>0.0067623</v>
+      </c>
+      <c r="D1514" t="n">
+        <v>0.0067221</v>
+      </c>
+      <c r="E1514" t="n">
+        <v>0.0067566</v>
+      </c>
+      <c r="F1514" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
